--- a/misc/marker_genes_set2.xlsx
+++ b/misc/marker_genes_set2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanli/Desktop/scRIC_development/scRICA/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC2DA04-6073-E245-A64B-55CCEF16E9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46DE060-18D7-5548-A00B-FE16CFC57B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24120" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6920" yWindow="3580" windowWidth="24120" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fallopian Tube Markers" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Gene</t>
   </si>
   <si>
-    <t>Cell Type</t>
-  </si>
-  <si>
     <t>CAPS</t>
   </si>
   <si>
-    <t>Ciliated Epithelial</t>
-  </si>
-  <si>
     <t>FOXJ1</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
   </si>
   <si>
     <t>JCHAIN</t>
-  </si>
-  <si>
-    <t>B-cell/plasma cell</t>
   </si>
   <si>
     <t>TUBB4</t>
@@ -395,78 +386,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A8:XFD63"/>
+      <selection activeCell="A8" sqref="A8:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="B2:B7"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
